--- a/biology/Zoologie/Belemnodes_scaber/Belemnodes_scaber.xlsx
+++ b/biology/Zoologie/Belemnodes_scaber/Belemnodes_scaber.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Belemnodes scaber, unique représentant du genre Belemnodes, est une espèce d'opilions laniatores de la famille des Manaosbiidae.
 </t>
@@ -511,9 +523,11 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce est endémique du Pará au Brésil[1]. Elle se rencontre vers Belém.
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce est endémique du Pará au Brésil. Elle se rencontre vers Belém.
 </t>
         </is>
       </c>
@@ -542,9 +556,11 @@
           <t>Systématique et taxinomie</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce a été décrite sous le protonyme Belemnus scaber par Roewer en 1932. Le nom Belemnus Roewer, 1932 étant préoccupé par Belemnus Fischer de Waldheim, 1817, il est renommé Belemnodes par Strand en 1942[2].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce a été décrite sous le protonyme Belemnus scaber par Roewer en 1932. Le nom Belemnus Roewer, 1932 étant préoccupé par Belemnus Fischer de Waldheim, 1817, il est renommé Belemnodes par Strand en 1942.
 </t>
         </is>
       </c>
@@ -573,7 +589,9 @@
           <t>Publications originales</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Roewer, 1932 : « Weitere Weberknechte VII (7. Ergänzung der: "Weberknechte der Erde", 1923) (Cranainae). » Archiv für Naturgeschichte, (N.F.), vol. 1, p. 275–350.
 Strand, 1942 : « Miscellanea nomenclatoria zoologica et Paleontologica X. » Folia Zoologica et Hydrobiologica, vol. 11, p. 386–402.</t>
